--- a/fakturor/Konferens.xlsx
+++ b/fakturor/Konferens.xlsx
@@ -966,7 +966,7 @@
       </c>
       <c r="C9" s="20" t="n"/>
       <c r="F9" s="43" t="n">
-        <v>773560</v>
+        <v>353883</v>
       </c>
       <c r="H9" s="5" t="n"/>
       <c r="I9" s="5" t="n"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="E15" s="12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F15" s="12" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="E16" s="21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" s="22" t="n">
         <v>150</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="E17" s="23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" s="24" t="n">
         <v>21</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E18" s="21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="22" t="n">
         <v>12</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="E19" s="23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" s="24" t="n">
         <v>14</v>
@@ -1294,7 +1294,7 @@
       <c r="A20" s="10" t="n"/>
       <c r="B20" s="37" t="n"/>
       <c r="E20" s="21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F20" s="22" t="n"/>
       <c r="G20" s="13" t="n"/>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="E21" s="21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>7</v>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E22" s="23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>7</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="E23" s="21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>15</v>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="E24" s="23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>14</v>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E25" s="21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="E26" s="23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>4</v>
